--- a/轨迹预测数据/ADSB数据记录-0507.xlsx
+++ b/轨迹预测数据/ADSB数据记录-0507.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="13860"/>
+    <workbookView windowWidth="20745" windowHeight="16725"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -883,11 +883,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
@@ -912,12 +909,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1454,35 +1445,35 @@
   <dimension ref="A1:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="16" style="3" customWidth="1"/>
-    <col min="2" max="3" width="8.375" style="3" customWidth="1"/>
-    <col min="4" max="4" width="4.375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="44.125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16" style="2" customWidth="1"/>
+    <col min="2" max="3" width="8.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="4.375" style="2" customWidth="1"/>
+    <col min="5" max="5" width="44.125" style="2" customWidth="1"/>
     <col min="7" max="7" width="32" customWidth="1"/>
-    <col min="8" max="9" width="10.875" style="4" customWidth="1"/>
-    <col min="10" max="10" width="7.375" style="4" customWidth="1"/>
-    <col min="11" max="11" width="11.2583333333333" style="4" customWidth="1"/>
+    <col min="8" max="9" width="10.875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.25" style="3" customWidth="1"/>
+    <col min="11" max="11" width="11.2583333333333" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="5" t="s">
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3">
+      <c r="D1" s="2">
         <v>264</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="F1">
@@ -1491,53 +1482,53 @@
       <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:11">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="3">
+      <c r="B2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2">
         <v>438</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="4">
+      <c r="J2" s="3">
         <v>89.512</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="3" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:11">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="2">
         <v>164</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F3">
@@ -1546,56 +1537,56 @@
       <c r="G3" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="4">
-        <v>89.526</v>
-      </c>
-      <c r="K3" s="4">
+      <c r="J3" s="3">
+        <v>89.527</v>
+      </c>
+      <c r="K3" s="3">
         <v>46.798</v>
       </c>
     </row>
     <row r="4" spans="1:11">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>284</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="J4" s="4">
-        <v>89.507</v>
-      </c>
-      <c r="K4" s="4">
+      <c r="J4" s="3">
+        <v>89.5034</v>
+      </c>
+      <c r="K4" s="3">
         <v>46.806</v>
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>177</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="2" t="s">
         <v>21</v>
       </c>
       <c r="F5">
@@ -1606,19 +1597,19 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>271</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>8</v>
       </c>
       <c r="F6">
@@ -1626,16 +1617,16 @@
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B7" s="5">
+      <c r="B7" s="4">
         <v>780899</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="2">
         <v>364</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F7">
@@ -1643,19 +1634,19 @@
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="2">
         <v>44</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>29</v>
       </c>
       <c r="F8">
@@ -1663,19 +1654,19 @@
       </c>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="2">
         <v>227</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F9">
@@ -1683,40 +1674,40 @@
       </c>
     </row>
     <row r="10" spans="1:11">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="5">
+      <c r="B10" s="4">
         <v>780899</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="2">
         <v>101</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="2" t="s">
         <v>33</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B11" s="4">
         <v>780899</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="2">
         <v>269</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F11">
@@ -1724,19 +1715,19 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="5">
+      <c r="B12" s="4">
         <v>780959</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="2">
         <v>159</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>38</v>
       </c>
       <c r="F12">
@@ -1747,19 +1738,19 @@
       </c>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="5">
+      <c r="B13" s="4">
         <v>780959</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="2">
         <v>346</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="2" t="s">
         <v>41</v>
       </c>
       <c r="F13">
@@ -1767,19 +1758,19 @@
       </c>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B14" s="5">
+      <c r="B14" s="4">
         <v>780538</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="2">
         <v>144</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="2" t="s">
         <v>43</v>
       </c>
       <c r="F14">
@@ -1790,19 +1781,19 @@
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B15" s="4">
         <v>780538</v>
       </c>
-      <c r="C15" s="5" t="s">
+      <c r="C15" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="2">
         <v>270</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>46</v>
       </c>
       <c r="F15">
@@ -1810,19 +1801,19 @@
       </c>
     </row>
     <row r="16" spans="1:7">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="2">
         <v>87</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="2" t="s">
         <v>49</v>
       </c>
       <c r="F16">
@@ -1833,19 +1824,19 @@
       </c>
     </row>
     <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>224</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F17">
@@ -1853,87 +1844,87 @@
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:10">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>780899</v>
       </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="8">
+      <c r="C18" s="6"/>
+      <c r="D18" s="7">
         <v>16</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="8" t="s">
         <v>52</v>
       </c>
       <c r="F18" s="1">
         <v>1</v>
       </c>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="H18" s="9"/>
+      <c r="I18" s="9"/>
+      <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>780899</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="2">
         <v>333</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" spans="1:11">
-      <c r="A20" s="11" t="s">
+    <row r="20" s="1" customFormat="1" spans="1:11">
+      <c r="A20" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="11">
+      <c r="D20" s="6">
         <v>53</v>
       </c>
-      <c r="E20" s="11" t="s">
+      <c r="E20" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="1">
         <v>0</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="G20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H20" s="12"/>
-      <c r="I20" s="12"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="H20" s="9"/>
+      <c r="I20" s="9"/>
+      <c r="J20" s="9"/>
+      <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="2">
         <v>217</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F21">
@@ -1941,19 +1932,19 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B22" s="5">
+      <c r="B22" s="4">
         <v>780681</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="2">
         <v>320</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
       <c r="F22">
@@ -1961,19 +1952,19 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="2">
         <v>249</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="2" t="s">
         <v>31</v>
       </c>
       <c r="F23">
@@ -1981,19 +1972,19 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B24" s="4">
         <v>780899</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="2">
         <v>257</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="2" t="s">
         <v>62</v>
       </c>
       <c r="F24">
@@ -2001,19 +1992,19 @@
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="2">
         <v>122</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="2" t="s">
         <v>64</v>
       </c>
       <c r="F25">
@@ -2021,19 +2012,19 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B26" s="3">
+      <c r="B26" s="2">
         <v>781077</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="C26" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="2">
         <v>118</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="2" t="s">
         <v>66</v>
       </c>
       <c r="F26">
@@ -2041,19 +2032,19 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="C27" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="2">
         <v>83</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F27">
@@ -2061,19 +2052,19 @@
       </c>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="3" t="s">
+      <c r="C28" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="2">
         <v>79</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F28">
@@ -2084,19 +2075,19 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="B29" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="C29" s="3" t="s">
+      <c r="C29" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="2">
         <v>71</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F29">
@@ -2104,19 +2095,19 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="3">
+      <c r="B30" s="2">
         <v>780538</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="C30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="2">
         <v>52</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="2" t="s">
         <v>68</v>
       </c>
       <c r="F30">
